--- a/data/trans_orig/AIRE_1_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/AIRE_1_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A76552A4-0D21-4183-A04B-8386E97647B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D54A8264-127A-47A6-81FB-1AC2B26E592B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2A09EAE1-B962-4064-B548-0D3FFD5F2DD4}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C1CC53BE-F3C4-4066-8A23-A438F68DF69B}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="181">
   <si>
     <t>Población que no está dispuesta a pagar para reducir la contaminación del aire (impuesto durante 5 años) en 2023 (Tasa respuesta: 51,54%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>81,73%</t>
   </si>
   <si>
-    <t>74,22%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
+    <t>74,13%</t>
+  </si>
+  <si>
+    <t>87,33%</t>
   </si>
   <si>
     <t>85,11%</t>
   </si>
   <si>
-    <t>80,22%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
+    <t>79,84%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
   </si>
   <si>
     <t>83,53%</t>
   </si>
   <si>
-    <t>79,32%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
+    <t>78,66%</t>
+  </si>
+  <si>
+    <t>87,1%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>18,27%</t>
   </si>
   <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
   </si>
   <si>
     <t>14,89%</t>
   </si>
   <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
   </si>
   <si>
     <t>16,47%</t>
   </si>
   <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>73,46%</t>
   </si>
   <si>
-    <t>64,65%</t>
-  </si>
-  <si>
-    <t>80,59%</t>
+    <t>65,2%</t>
+  </si>
+  <si>
+    <t>80,06%</t>
   </si>
   <si>
     <t>78,13%</t>
   </si>
   <si>
-    <t>72,23%</t>
-  </si>
-  <si>
-    <t>82,78%</t>
+    <t>72,56%</t>
+  </si>
+  <si>
+    <t>82,57%</t>
   </si>
   <si>
     <t>75,71%</t>
   </si>
   <si>
-    <t>71,36%</t>
-  </si>
-  <si>
-    <t>80,03%</t>
+    <t>70,88%</t>
+  </si>
+  <si>
+    <t>79,91%</t>
   </si>
   <si>
     <t>26,54%</t>
   </si>
   <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>35,35%</t>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>34,8%</t>
   </si>
   <si>
     <t>21,87%</t>
   </si>
   <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
   </si>
   <si>
     <t>24,29%</t>
   </si>
   <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -194,55 +194,55 @@
     <t>73,92%</t>
   </si>
   <si>
-    <t>66,5%</t>
-  </si>
-  <si>
-    <t>79,88%</t>
+    <t>66,63%</t>
+  </si>
+  <si>
+    <t>79,92%</t>
   </si>
   <si>
     <t>74,49%</t>
   </si>
   <si>
-    <t>67,8%</t>
-  </si>
-  <si>
-    <t>79,63%</t>
+    <t>68,58%</t>
+  </si>
+  <si>
+    <t>80,25%</t>
   </si>
   <si>
     <t>74,21%</t>
   </si>
   <si>
-    <t>69,07%</t>
-  </si>
-  <si>
-    <t>78,56%</t>
+    <t>69,26%</t>
+  </si>
+  <si>
+    <t>78,49%</t>
   </si>
   <si>
     <t>26,08%</t>
   </si>
   <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>33,37%</t>
   </si>
   <si>
     <t>25,51%</t>
   </si>
   <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
   </si>
   <si>
     <t>25,79%</t>
   </si>
   <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -251,55 +251,55 @@
     <t>69,2%</t>
   </si>
   <si>
-    <t>59,8%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
+    <t>60,28%</t>
+  </si>
+  <si>
+    <t>77,59%</t>
   </si>
   <si>
     <t>70,57%</t>
   </si>
   <si>
-    <t>59,85%</t>
-  </si>
-  <si>
-    <t>77,28%</t>
+    <t>58,54%</t>
+  </si>
+  <si>
+    <t>76,73%</t>
   </si>
   <si>
     <t>69,96%</t>
   </si>
   <si>
-    <t>61,89%</t>
-  </si>
-  <si>
-    <t>74,91%</t>
+    <t>62,8%</t>
+  </si>
+  <si>
+    <t>75,38%</t>
   </si>
   <si>
     <t>30,8%</t>
   </si>
   <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>40,2%</t>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>39,72%</t>
   </si>
   <si>
     <t>29,43%</t>
   </si>
   <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>41,46%</t>
   </si>
   <si>
     <t>30,04%</t>
   </si>
   <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>38,11%</t>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>37,2%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -308,55 +308,55 @@
     <t>43,89%</t>
   </si>
   <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>52,51%</t>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>52,46%</t>
   </si>
   <si>
     <t>51,94%</t>
   </si>
   <si>
-    <t>46,19%</t>
-  </si>
-  <si>
-    <t>58,27%</t>
+    <t>45,74%</t>
+  </si>
+  <si>
+    <t>57,74%</t>
   </si>
   <si>
     <t>48,39%</t>
   </si>
   <si>
-    <t>43,87%</t>
-  </si>
-  <si>
-    <t>53,39%</t>
+    <t>43,36%</t>
+  </si>
+  <si>
+    <t>53,29%</t>
   </si>
   <si>
     <t>56,11%</t>
   </si>
   <si>
-    <t>47,49%</t>
-  </si>
-  <si>
-    <t>63,95%</t>
+    <t>47,54%</t>
+  </si>
+  <si>
+    <t>64,08%</t>
   </si>
   <si>
     <t>48,06%</t>
   </si>
   <si>
-    <t>41,73%</t>
-  </si>
-  <si>
-    <t>53,81%</t>
+    <t>42,26%</t>
+  </si>
+  <si>
+    <t>54,26%</t>
   </si>
   <si>
     <t>51,61%</t>
   </si>
   <si>
-    <t>46,61%</t>
-  </si>
-  <si>
-    <t>56,13%</t>
+    <t>46,71%</t>
+  </si>
+  <si>
+    <t>56,64%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -365,43 +365,49 @@
     <t>77,49%</t>
   </si>
   <si>
-    <t>83,12%</t>
+    <t>70,09%</t>
   </si>
   <si>
     <t>80,28%</t>
   </si>
   <si>
-    <t>73,71%</t>
-  </si>
-  <si>
-    <t>85,69%</t>
+    <t>74,16%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
   </si>
   <si>
     <t>78,91%</t>
   </si>
   <si>
-    <t>82,79%</t>
+    <t>74,28%</t>
+  </si>
+  <si>
+    <t>82,97%</t>
   </si>
   <si>
     <t>22,51%</t>
   </si>
   <si>
-    <t>16,88%</t>
+    <t>29,91%</t>
   </si>
   <si>
     <t>19,72%</t>
   </si>
   <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
   </si>
   <si>
     <t>21,09%</t>
   </si>
   <si>
-    <t>17,21%</t>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -410,16 +416,16 @@
     <t>70,4%</t>
   </si>
   <si>
-    <t>64,31%</t>
-  </si>
-  <si>
-    <t>76,23%</t>
+    <t>63,9%</t>
+  </si>
+  <si>
+    <t>75,93%</t>
   </si>
   <si>
     <t>76,44%</t>
   </si>
   <si>
-    <t>66,38%</t>
+    <t>66,51%</t>
   </si>
   <si>
     <t>87,76%</t>
@@ -428,19 +434,19 @@
     <t>74,03%</t>
   </si>
   <si>
-    <t>67,79%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
+    <t>68,08%</t>
+  </si>
+  <si>
+    <t>83,14%</t>
   </si>
   <si>
     <t>29,6%</t>
   </si>
   <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
   </si>
   <si>
     <t>23,56%</t>
@@ -449,16 +455,16 @@
     <t>12,24%</t>
   </si>
   <si>
-    <t>33,62%</t>
+    <t>33,49%</t>
   </si>
   <si>
     <t>25,97%</t>
   </si>
   <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -467,109 +473,109 @@
     <t>82,99%</t>
   </si>
   <si>
-    <t>78,88%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
+    <t>79,4%</t>
+  </si>
+  <si>
+    <t>86,66%</t>
   </si>
   <si>
     <t>90,24%</t>
   </si>
   <si>
-    <t>87,55%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
   </si>
   <si>
     <t>86,61%</t>
   </si>
   <si>
-    <t>84,25%</t>
-  </si>
-  <si>
-    <t>88,87%</t>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
   </si>
   <si>
     <t>17,01%</t>
   </si>
   <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
   </si>
   <si>
     <t>9,76%</t>
   </si>
   <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
   </si>
   <si>
     <t>13,39%</t>
   </si>
   <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
   </si>
   <si>
     <t>73,86%</t>
   </si>
   <si>
-    <t>71,24%</t>
-  </si>
-  <si>
-    <t>76,08%</t>
+    <t>71,31%</t>
+  </si>
+  <si>
+    <t>76,04%</t>
   </si>
   <si>
     <t>77,84%</t>
   </si>
   <si>
-    <t>75,51%</t>
-  </si>
-  <si>
-    <t>81,62%</t>
+    <t>75,55%</t>
+  </si>
+  <si>
+    <t>81,9%</t>
   </si>
   <si>
     <t>75,98%</t>
   </si>
   <si>
-    <t>74,23%</t>
-  </si>
-  <si>
-    <t>78,22%</t>
+    <t>74,25%</t>
+  </si>
+  <si>
+    <t>78,55%</t>
   </si>
   <si>
     <t>26,14%</t>
   </si>
   <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
   </si>
   <si>
     <t>22,16%</t>
   </si>
   <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
   </si>
   <si>
     <t>24,02%</t>
   </si>
   <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -984,7 +990,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB20A4F1-8422-4551-8280-F741162460E8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{791E1A00-4DF6-405C-992A-EA6F83A12B1D}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1886,10 +1892,10 @@
         <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>109</v>
+        <v>17</v>
       </c>
       <c r="H19" s="7">
         <v>205</v>
@@ -1916,10 +1922,10 @@
         <v>113</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>57</v>
+        <v>114</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1934,13 +1940,13 @@
         <v>32471</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>116</v>
+        <v>27</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="H20" s="7">
         <v>40</v>
@@ -1949,13 +1955,13 @@
         <v>29630</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M20" s="7">
         <v>80</v>
@@ -1964,13 +1970,13 @@
         <v>62101</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>66</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2026,7 +2032,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2038,13 +2044,13 @@
         <v>199257</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H22" s="7">
         <v>311</v>
@@ -2053,13 +2059,13 @@
         <v>325964</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M22" s="7">
         <v>500</v>
@@ -2068,13 +2074,13 @@
         <v>525221</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2089,13 +2095,13 @@
         <v>83785</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H23" s="7">
         <v>139</v>
@@ -2104,13 +2110,13 @@
         <v>100474</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M23" s="7">
         <v>225</v>
@@ -2119,13 +2125,13 @@
         <v>184259</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2181,7 +2187,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2193,13 +2199,13 @@
         <v>335971</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H25" s="7">
         <v>446</v>
@@ -2208,13 +2214,13 @@
         <v>364636</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M25" s="7">
         <v>770</v>
@@ -2223,13 +2229,13 @@
         <v>700605</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2244,13 +2250,13 @@
         <v>68853</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H26" s="7">
         <v>52</v>
@@ -2259,13 +2265,13 @@
         <v>39425</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M26" s="7">
         <v>121</v>
@@ -2274,13 +2280,13 @@
         <v>108279</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2345,16 +2351,16 @@
         <v>1315</v>
       </c>
       <c r="D28" s="7">
-        <v>1268590</v>
+        <v>1268589</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H28" s="7">
         <v>2107</v>
@@ -2363,13 +2369,13 @@
         <v>1514414</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M28" s="7">
         <v>3422</v>
@@ -2378,13 +2384,13 @@
         <v>2783003</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2399,13 +2405,13 @@
         <v>448898</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H29" s="7">
         <v>636</v>
@@ -2414,13 +2420,13 @@
         <v>431040</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M29" s="7">
         <v>1084</v>
@@ -2429,13 +2435,13 @@
         <v>879938</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2447,7 +2453,7 @@
         <v>1763</v>
       </c>
       <c r="D30" s="7">
-        <v>1717488</v>
+        <v>1717487</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -2491,7 +2497,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/AIRE_1_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/AIRE_1_R-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D54A8264-127A-47A6-81FB-1AC2B26E592B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5FB34B37-3A85-4426-9536-1EA87127408B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C1CC53BE-F3C4-4066-8A23-A438F68DF69B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6286183D-5D2A-4D55-B16A-8849975F5906}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -990,7 +990,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{791E1A00-4DF6-405C-992A-EA6F83A12B1D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1D960A0-480B-4688-9949-8DE971EB4D5A}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
